--- a/DataNV/Долішний.xlsx
+++ b/DataNV/Долішний.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026464 від 12.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026464 від 12.07.2024 14:04:45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -720,7 +720,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026703 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026703 від 24.07.2024 09:47:06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -822,7 +822,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026717 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026717 від 24.07.2024 17:27:35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -939,7 +939,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026744 від 25.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026744 від 25.07.2024 15:05:55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1051,7 +1051,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026782 від 27.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026782 від 27.07.2024 11:35:20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026861 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026861 від 30.07.2024 17:50:19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1278,220 +1278,6 @@
         </is>
       </c>
       <c r="AB7" t="inlineStr">
-        <is>
-          <t>Приватна особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>70</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:50:36</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026888 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Заявка</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>31.07.2024 16:00:00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Технічне обслуговування</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Долішний В.В.</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>17727.71</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3759.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>14773.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3132.84</v>
-      </c>
-      <c r="O8" t="n">
-        <v>17905.93</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5909.24</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>21487.12</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.201</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>АРКАДА-Х, ТзОВ</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Урумова Жанна Михайлівна</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>03. Mercedes-Benz E 220 d 4MATIC</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>BC3599HC</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>WDD2130051A339254</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
-        <v>112775</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>28.02.2018</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Юридична особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>74</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:16:41</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026892 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Заявка</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>31.07.2024 17:24:00</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Поточний ремонт</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Долішний В.В.</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>3759.36</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3132.8</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>КАВЕЦЬКА ХРИСТИНА ПЕТРІВНА</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>КАВЕЦЬКА ХРИСТИНА ПЕТРІВНА</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>+38 (098) 9850206</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz GLC 220 d 4MATIC</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>BC7100OC</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>WDC2539051F318248</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
-        <v>96490</v>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>23.03.2018</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
         <is>
           <t>Приватна особа</t>
         </is>
